--- a/KMC/docs/help.xlsx
+++ b/KMC/docs/help.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="144">
   <si>
     <t xml:space="preserve">location </t>
   </si>
@@ -418,13 +418,43 @@
   </si>
   <si>
     <t>section46</t>
+  </si>
+  <si>
+    <t>section115</t>
+  </si>
+  <si>
+    <t>section114,section113</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>section123</t>
+  </si>
+  <si>
+    <t>section151</t>
+  </si>
+  <si>
+    <t>section152</t>
+  </si>
+  <si>
+    <t>section231</t>
+  </si>
+  <si>
+    <t>section242</t>
+  </si>
+  <si>
+    <t>section412</t>
+  </si>
+  <si>
+    <t>section422</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,8 +494,16 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +532,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -504,12 +547,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -525,8 +569,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,223 +867,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C54" activeCellId="1" sqref="C52 C54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="48.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18">
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1045,29 +1146,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1075,326 +1182,407 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18">
+    <row r="33" spans="1:6" ht="18">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B36" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>76</v>
       </c>
       <c r="B40" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>77</v>
       </c>
       <c r="B41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>132</v>
       </c>
       <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>78</v>
       </c>
       <c r="B43" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15">
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="15">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" t="s">
         <v>81</v>
       </c>
       <c r="B45" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="15">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" t="s">
         <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="15">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" t="s">
         <v>83</v>
       </c>
       <c r="B47" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="15">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" t="s">
         <v>84</v>
       </c>
       <c r="B48" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="15">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" t="s">
         <v>85</v>
       </c>
       <c r="B49" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="18">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="18">
       <c r="A50" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>31</v>
       </c>
       <c r="B51" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>33</v>
       </c>
       <c r="B52" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>32</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>54</v>
       </c>
     </row>
